--- a/Data/result2.xlsx
+++ b/Data/result2.xlsx
@@ -492,28 +492,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41.21148801379988</v>
+        <v>129.4968728051308</v>
       </c>
       <c r="C2" t="n">
-        <v>105.9066576406415</v>
+        <v>86.44631853366056</v>
       </c>
       <c r="D2" t="n">
-        <v>19501.36997329669</v>
+        <v>16483.02955015351</v>
       </c>
       <c r="E2" t="n">
-        <v>1490.039494043701</v>
+        <v>1597.790577983886</v>
       </c>
       <c r="F2" t="n">
         <v>1800</v>
       </c>
       <c r="G2" t="n">
-        <v>20717.66666621356</v>
+        <v>16328.84265159073</v>
       </c>
       <c r="H2" t="n">
-        <v>2555.257604957695</v>
+        <v>1784.855043857723</v>
       </c>
       <c r="I2" t="n">
-        <v>657.9994448438495</v>
+        <v>1761.466852725041</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -526,31 +526,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>251.9635735904272</v>
+        <v>257.2494633050753</v>
       </c>
       <c r="C3" t="n">
-        <v>127.7266824908849</v>
+        <v>124.1325168444586</v>
       </c>
       <c r="D3" t="n">
-        <v>11817.46387280534</v>
+        <v>10669.88115060239</v>
       </c>
       <c r="E3" t="n">
-        <v>839.4244774508143</v>
+        <v>-4478.023697489891</v>
       </c>
       <c r="F3" t="n">
         <v>1400</v>
       </c>
       <c r="G3" t="n">
-        <v>11554.65546649736</v>
+        <v>10608.35517653672</v>
       </c>
       <c r="H3" t="n">
-        <v>32.32967402429938</v>
+        <v>-4749.917546474109</v>
       </c>
       <c r="I3" t="n">
-        <v>1183.604170636826</v>
+        <v>1375.287799049143</v>
       </c>
       <c r="J3" t="n">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="4">
@@ -560,31 +560,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>291.7578690766568</v>
+        <v>119.5961719055648</v>
       </c>
       <c r="C4" t="n">
-        <v>120.3770864934802</v>
+        <v>139.0792771172459</v>
       </c>
       <c r="D4" t="n">
-        <v>7065.344541809804</v>
+        <v>4727.451121421163</v>
       </c>
       <c r="E4" t="n">
-        <v>-5669.241985342005</v>
+        <v>-759.5603381535102</v>
       </c>
       <c r="F4" t="n">
         <v>700</v>
       </c>
       <c r="G4" t="n">
-        <v>7264.988019469102</v>
+        <v>4224.904431129557</v>
       </c>
       <c r="H4" t="n">
-        <v>-6169.452698171683</v>
+        <v>125.2194575871594</v>
       </c>
       <c r="I4" t="n">
-        <v>601.9136311542047</v>
+        <v>437.7143369492982</v>
       </c>
       <c r="J4" t="n">
-        <v>1.4</v>
+        <v>8.4</v>
       </c>
     </row>
   </sheetData>
